--- a/Call4Concern(1-59) (anonymised) v3.xlsx
+++ b/Call4Concern(1-59) (anonymised) v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1751b608ea6aab/Business/Medicine/QIP/Escalation to ICU/Report/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1751b608ea6aab/Business/Medicine/QIP/Escalation to ICU/Report/Data/escalation_to_icu_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{66B741A3-5789-4468-837A-3222A71B325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="750" windowWidth="14175" windowHeight="15450"/>
+    <workbookView xWindow="15015" yWindow="30" windowWidth="13185" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1235,11 +1235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Call4Concern(1-59) (anonymised) v3.xlsx
+++ b/Call4Concern(1-59) (anonymised) v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1751b608ea6aab/Business/Medicine/QIP/Escalation to ICU/Report/Data/escalation_to_icu_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B741A3-5789-4468-837A-3222A71B325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{66B741A3-5789-4468-837A-3222A71B325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1EE272-024D-4267-9579-721012FAD04F}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="30" windowWidth="13185" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="0" windowWidth="13185" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Age Group
-</t>
-  </si>
-  <si>
     <t>Reason for admission</t>
   </si>
   <si>
@@ -71,19 +67,12 @@
     <t>If Sometimes, please explain:</t>
   </si>
   <si>
-    <t xml:space="preserve">If you are a patient, are you able to communicate your concerns effectively?
-</t>
-  </si>
-  <si>
     <t>Is there someone designated to act on your behalf if you are unable to communicate your concerns?</t>
   </si>
   <si>
     <t>How would you describe your understanding of your/the patient's admission, care, and diagnosis?</t>
   </si>
   <si>
-    <t>On a scale from 1-10, how would you rate the communication from medical staff regarding your/the patient’s condition, treatment plans and progress? (1 being 'extremely poor' and 10 being 'extremel...</t>
-  </si>
-  <si>
     <t>Do you feel able to participate in decisions relating to your/the patient's care with the healthcare team?</t>
   </si>
   <si>
@@ -126,10 +115,6 @@
     <t>Accurately described how to contact</t>
   </si>
   <si>
-    <t xml:space="preserve">How confident would you feel using the Call4Concern program if necessary?
-</t>
-  </si>
-  <si>
     <t>Do you feel reassured knowing that you or your family/friends can reach out to a professional using Call4Concern?</t>
   </si>
   <si>
@@ -137,10 +122,6 @@
   </si>
   <si>
     <t>Does the poster help you understand what C4C is?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you been asked about any concerns that you may have during the ward round?
-</t>
   </si>
   <si>
     <t>Are you asked about your concerns daily?</t>
@@ -885,6 +866,21 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>How confident would you feel using the Call4Concern program if necessary?</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>If you are a patient, are you able to communicate your concerns effectively?</t>
+  </si>
+  <si>
+    <t>On a scale from 1-10, how would you rate the communication from medical staff regarding your/the patient’s condition, treatment plans and progress? (1 being 'extremely poor' and 10 being 'extremel…</t>
+  </si>
+  <si>
+    <t>Have you been asked about any concerns that you may have during the ward round?</t>
   </si>
 </sst>
 </file>
@@ -920,8 +916,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,6 +936,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1238,13 +1241,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,95 +1260,95 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH1" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -1359,64 +1362,64 @@
         <v>45238.604664351798</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
       </c>
       <c r="N2">
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2">
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1430,79 +1433,79 @@
         <v>45238.615023148101</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3">
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -1516,73 +1519,73 @@
         <v>45238.615324074097</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>8</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4">
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -1596,91 +1599,91 @@
         <v>45238.630868055603</v>
       </c>
       <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
       <c r="N5">
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P5">
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1694,91 +1697,91 @@
         <v>45238.633449074099</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>9</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P6">
         <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1792,88 +1795,88 @@
         <v>45238.636458333298</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P7">
         <v>8</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1887,91 +1890,91 @@
         <v>45238.636550925898</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N8">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P8">
         <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1985,91 +1988,91 @@
         <v>45238.641550925902</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P9">
         <v>10</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -2083,91 +2086,91 @@
         <v>45238.644560185203</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P10">
         <v>7</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Y10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AB10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -2181,70 +2184,70 @@
         <v>45238.655624999999</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P11">
         <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -2258,85 +2261,85 @@
         <v>45238.655972222201</v>
       </c>
       <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>8</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P12">
         <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -2350,70 +2353,70 @@
         <v>45238.659108796302</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P13">
         <v>6</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -2427,85 +2430,85 @@
         <v>45238.662696759297</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AB14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -2519,64 +2522,64 @@
         <v>45238.664652777799</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P15">
         <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -2590,64 +2593,64 @@
         <v>45238.6703472222</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
-      </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -2661,16 +2664,16 @@
         <v>45238.671238425901</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -2684,91 +2687,91 @@
         <v>45245.573877314797</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" t="s">
-        <v>39</v>
-      </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>6</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P18">
         <v>5</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Y18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -2782,64 +2785,64 @@
         <v>45245.574965277803</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>8</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P19">
         <v>5</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -2853,67 +2856,67 @@
         <v>45245.579467592601</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>8</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P20">
         <v>8</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -2927,67 +2930,67 @@
         <v>45245.583807870396</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N21">
         <v>9</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P21">
         <v>10</v>
       </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -3001,58 +3004,58 @@
         <v>45245.592708333301</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N22">
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P22">
         <v>10</v>
       </c>
       <c r="Q22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -3066,91 +3069,91 @@
         <v>45264.686921296299</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N23">
         <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P23">
         <v>5</v>
       </c>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Y23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AB23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -3164,88 +3167,88 @@
         <v>45264.696678240703</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N24">
         <v>7</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P24">
         <v>10</v>
       </c>
       <c r="Q24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AB24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -3259,70 +3262,70 @@
         <v>45264.706724536998</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" t="s">
         <v>34</v>
       </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" t="s">
-        <v>39</v>
-      </c>
       <c r="M25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N25">
         <v>7</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P25">
         <v>6</v>
       </c>
       <c r="Q25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -3336,82 +3339,82 @@
         <v>45264.715104166702</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N26">
         <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P26">
         <v>7</v>
       </c>
       <c r="Q26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Y26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AH26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -3425,91 +3428,91 @@
         <v>45264.722175925897</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" t="s">
-        <v>39</v>
-      </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N27">
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P27">
         <v>9</v>
       </c>
       <c r="Q27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Y27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AB27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -3523,70 +3526,70 @@
         <v>45264.726932870399</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
         <v>34</v>
       </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" t="s">
-        <v>39</v>
-      </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>5</v>
       </c>
       <c r="O28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P28">
         <v>7</v>
       </c>
       <c r="Q28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -3600,67 +3603,67 @@
         <v>45264.739212963003</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N29">
         <v>5</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P29">
         <v>8</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AH29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -3674,88 +3677,88 @@
         <v>45264.744340277801</v>
       </c>
       <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>155</v>
+      </c>
+      <c r="M30" t="s">
         <v>57</v>
-      </c>
-      <c r="E30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" t="s">
-        <v>160</v>
-      </c>
-      <c r="M30" t="s">
-        <v>62</v>
       </c>
       <c r="N30">
         <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P30">
         <v>5</v>
       </c>
       <c r="Q30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AB30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -3769,88 +3772,88 @@
         <v>45264.752708333297</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" t="s">
-        <v>39</v>
-      </c>
       <c r="M31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N31">
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P31">
         <v>5</v>
       </c>
       <c r="Q31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AB31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -3864,91 +3867,91 @@
         <v>45264.757997685199</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" t="s">
-        <v>39</v>
-      </c>
       <c r="M32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N32">
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P32">
         <v>10</v>
       </c>
       <c r="Q32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Y32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AB32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
@@ -3962,85 +3965,85 @@
         <v>45265.508807870399</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N33">
         <v>9</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P33">
         <v>9</v>
       </c>
       <c r="Q33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AB33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AE33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -4054,70 +4057,70 @@
         <v>45265.518703703703</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
         <v>34</v>
       </c>
-      <c r="F34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" t="s">
-        <v>39</v>
-      </c>
       <c r="M34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N34">
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P34">
         <v>9</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AH34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -4131,67 +4134,67 @@
         <v>45265.525243055599</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N35">
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P35">
         <v>10</v>
       </c>
       <c r="Q35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -4205,85 +4208,85 @@
         <v>45265.535300925898</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
         <v>34</v>
       </c>
-      <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" t="s">
-        <v>39</v>
-      </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N36">
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P36">
         <v>10</v>
       </c>
       <c r="Q36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AB36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -4297,70 +4300,70 @@
         <v>45265.546168981498</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" t="s">
         <v>34</v>
       </c>
-      <c r="F37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" t="s">
-        <v>200</v>
-      </c>
-      <c r="H37" t="s">
-        <v>201</v>
-      </c>
-      <c r="I37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" t="s">
-        <v>39</v>
-      </c>
       <c r="M37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N37">
         <v>8</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P37">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4374,85 +4377,85 @@
         <v>45265.554907407401</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N38">
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P38">
         <v>10</v>
       </c>
       <c r="Q38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AE38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
@@ -4466,67 +4469,67 @@
         <v>45265.561493055597</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
         <v>34</v>
       </c>
-      <c r="F39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" t="s">
-        <v>207</v>
-      </c>
-      <c r="H39" t="s">
-        <v>208</v>
-      </c>
-      <c r="I39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" t="s">
-        <v>39</v>
-      </c>
       <c r="M39" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N39">
         <v>9</v>
       </c>
       <c r="O39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P39">
         <v>9</v>
       </c>
       <c r="Q39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
@@ -4540,67 +4543,67 @@
         <v>45265.590034722198</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M40" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N40">
         <v>5</v>
       </c>
       <c r="O40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P40">
         <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
@@ -4614,67 +4617,67 @@
         <v>45265.594571759299</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N41">
         <v>8</v>
       </c>
       <c r="O41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P41">
         <v>10</v>
       </c>
       <c r="Q41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R41" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
@@ -4688,67 +4691,67 @@
         <v>45265.600162037001</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N42">
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P42">
         <v>10</v>
       </c>
       <c r="Q42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
@@ -4762,70 +4765,70 @@
         <v>45265.606249999997</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K43" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" t="s">
-        <v>39</v>
-      </c>
       <c r="M43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N43">
         <v>6</v>
       </c>
       <c r="O43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P43">
         <v>5</v>
       </c>
       <c r="Q43" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="S43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH43" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
@@ -4839,67 +4842,67 @@
         <v>45309.678298611099</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H44" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N44">
         <v>7</v>
       </c>
       <c r="O44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P44">
         <v>10</v>
       </c>
       <c r="Q44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R44" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AH44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -4913,67 +4916,67 @@
         <v>45309.685231481497</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H45" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N45">
         <v>9</v>
       </c>
       <c r="O45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P45">
         <v>9</v>
       </c>
       <c r="Q45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH45" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
@@ -4987,85 +4990,85 @@
         <v>45309.690381944398</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" t="s">
         <v>34</v>
-      </c>
-      <c r="F46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H46" t="s">
-        <v>230</v>
-      </c>
-      <c r="I46" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" t="s">
-        <v>39</v>
       </c>
       <c r="N46">
         <v>8</v>
       </c>
       <c r="O46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P46">
         <v>8</v>
       </c>
       <c r="Q46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R46" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X46" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Y46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AB46" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
@@ -5079,67 +5082,67 @@
         <v>45309.697071759299</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H47" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K47" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L47" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M47" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N47">
         <v>8</v>
       </c>
       <c r="O47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P47">
         <v>7</v>
       </c>
       <c r="Q47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -5153,82 +5156,82 @@
         <v>45309.698043981502</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
         <v>34</v>
       </c>
-      <c r="F48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" t="s">
-        <v>236</v>
-      </c>
-      <c r="H48" t="s">
-        <v>237</v>
-      </c>
-      <c r="I48" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" t="s">
-        <v>39</v>
-      </c>
       <c r="M48" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N48">
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P48">
         <v>10</v>
       </c>
       <c r="Q48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Y48" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AB48" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH48" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -5242,67 +5245,67 @@
         <v>45309.701377314799</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
         <v>34</v>
       </c>
-      <c r="F49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" t="s">
-        <v>239</v>
-      </c>
-      <c r="H49" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" t="s">
-        <v>38</v>
-      </c>
-      <c r="L49" t="s">
-        <v>39</v>
-      </c>
       <c r="M49" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N49">
         <v>8</v>
       </c>
       <c r="O49" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P49">
         <v>8</v>
       </c>
       <c r="Q49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG49" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AH49" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
@@ -5316,67 +5319,67 @@
         <v>45309.704467592601</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
         <v>34</v>
       </c>
-      <c r="F50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" t="s">
-        <v>241</v>
-      </c>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" t="s">
-        <v>38</v>
-      </c>
-      <c r="L50" t="s">
-        <v>39</v>
-      </c>
       <c r="M50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N50">
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P50">
         <v>10</v>
       </c>
       <c r="Q50" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S50" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T50" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF50" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
@@ -5390,88 +5393,88 @@
         <v>45309.712361111102</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
         <v>34</v>
       </c>
-      <c r="F51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" t="s">
-        <v>242</v>
-      </c>
-      <c r="H51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" t="s">
-        <v>38</v>
-      </c>
-      <c r="L51" t="s">
-        <v>39</v>
-      </c>
       <c r="M51" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N51">
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P51">
         <v>10</v>
       </c>
       <c r="Q51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X51" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Y51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA51" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AB51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH51" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
@@ -5485,76 +5488,76 @@
         <v>45309.714490740698</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M52" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N52">
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P52">
         <v>10</v>
       </c>
       <c r="Q52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S52" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U52" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X52" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Y52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AB52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
@@ -5568,91 +5571,91 @@
         <v>45309.715254629598</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" t="s">
         <v>34</v>
       </c>
-      <c r="F53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" t="s">
-        <v>249</v>
-      </c>
-      <c r="H53" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L53" t="s">
-        <v>39</v>
-      </c>
       <c r="M53" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N53">
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P53">
         <v>9</v>
       </c>
       <c r="Q53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R53" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X53" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Y53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA53" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AB53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC53" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH53" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
@@ -5666,70 +5669,70 @@
         <v>45309.727488425902</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M54" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N54">
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P54">
         <v>8</v>
       </c>
       <c r="Q54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R54" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="S54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
@@ -5743,67 +5746,67 @@
         <v>45309.742222222201</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N55">
         <v>5</v>
       </c>
       <c r="O55" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P55">
         <v>7</v>
       </c>
       <c r="Q55" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S55" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T55" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y55" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG55" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -5817,70 +5820,70 @@
         <v>45314.6632523148</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" t="s">
+        <v>256</v>
+      </c>
+      <c r="H56" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
         <v>34</v>
       </c>
-      <c r="F56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" t="s">
-        <v>261</v>
-      </c>
-      <c r="H56" t="s">
-        <v>262</v>
-      </c>
-      <c r="I56" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" t="s">
-        <v>38</v>
-      </c>
-      <c r="L56" t="s">
-        <v>39</v>
-      </c>
       <c r="M56" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N56">
         <v>7</v>
       </c>
       <c r="O56" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P56">
         <v>7</v>
       </c>
       <c r="Q56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R56" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
@@ -5894,91 +5897,91 @@
         <v>45314.6706597222</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>259</v>
+      </c>
+      <c r="H57" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" t="s">
         <v>34</v>
       </c>
-      <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>264</v>
-      </c>
-      <c r="H57" t="s">
-        <v>197</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" t="s">
-        <v>38</v>
-      </c>
-      <c r="L57" t="s">
-        <v>39</v>
-      </c>
       <c r="M57" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N57">
         <v>10</v>
       </c>
       <c r="O57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P57">
         <v>10</v>
       </c>
       <c r="Q57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R57" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U57" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X57" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Y57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA57" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AB57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH57" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
@@ -5992,67 +5995,67 @@
         <v>45314.677465277797</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" t="s">
         <v>34</v>
       </c>
-      <c r="F58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" t="s">
-        <v>269</v>
-      </c>
-      <c r="H58" t="s">
-        <v>270</v>
-      </c>
-      <c r="I58" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" t="s">
-        <v>39</v>
-      </c>
       <c r="M58" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N58">
         <v>8</v>
       </c>
       <c r="O58" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P58">
         <v>8</v>
       </c>
       <c r="Q58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH58" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
@@ -6066,94 +6069,94 @@
         <v>45314.685081018499</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
         <v>34</v>
       </c>
-      <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>271</v>
-      </c>
-      <c r="H59" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" t="s">
-        <v>61</v>
-      </c>
-      <c r="K59" t="s">
-        <v>38</v>
-      </c>
-      <c r="L59" t="s">
-        <v>39</v>
-      </c>
       <c r="M59" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N59">
         <v>9</v>
       </c>
       <c r="O59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P59">
         <v>5</v>
       </c>
       <c r="Q59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R59" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="S59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="V59" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="W59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X59" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Y59" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AA59" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AB59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -6167,91 +6170,91 @@
         <v>45314.689363425903</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>271</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" t="s">
         <v>34</v>
       </c>
-      <c r="F60" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" t="s">
-        <v>276</v>
-      </c>
-      <c r="H60" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" t="s">
-        <v>61</v>
-      </c>
-      <c r="K60" t="s">
-        <v>38</v>
-      </c>
-      <c r="L60" t="s">
-        <v>39</v>
-      </c>
       <c r="M60" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N60">
         <v>9</v>
       </c>
       <c r="O60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P60">
         <v>10</v>
       </c>
       <c r="Q60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R60" t="s">
+        <v>268</v>
+      </c>
+      <c r="S60" t="s">
+        <v>33</v>
+      </c>
+      <c r="T60" t="s">
+        <v>33</v>
+      </c>
+      <c r="U60" t="s">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s">
+        <v>33</v>
+      </c>
+      <c r="X60" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA60" t="s">
         <v>273</v>
       </c>
-      <c r="S60" t="s">
-        <v>38</v>
-      </c>
-      <c r="T60" t="s">
-        <v>38</v>
-      </c>
-      <c r="U60" t="s">
-        <v>42</v>
-      </c>
-      <c r="W60" t="s">
-        <v>38</v>
-      </c>
-      <c r="X60" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>278</v>
-      </c>
       <c r="AB60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AH60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Call4Concern(1-59) (anonymised) v3.xlsx
+++ b/Call4Concern(1-59) (anonymised) v3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1751b608ea6aab/Business/Medicine/QIP/Escalation to ICU/Report/Data/escalation_to_icu_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1751b608ea6aab/Business/Medicine/QIP/Escalation to ICU/Report/Data/escalation_to_icu_analysis_2/escalation_to_icu_qip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{66B741A3-5789-4468-837A-3222A71B325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1EE272-024D-4267-9579-721012FAD04F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{66B741A3-5789-4468-837A-3222A71B325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3EC4DAA-1B2F-C643-ACF4-BCA42A86FD4C}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="0" windowWidth="13185" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="500" windowWidth="13180" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -936,10 +936,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1241,13 +1237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1588,7 +1584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1686,7 +1682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1784,7 +1780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1977,7 +1973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2075,7 +2071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2173,7 +2169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2419,7 +2415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2582,7 +2578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2653,7 +2649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2676,7 +2672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2774,7 +2770,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2845,7 +2841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2919,7 +2915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2993,7 +2989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3058,7 +3054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3251,7 +3247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3328,7 +3324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3515,7 +3511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3592,7 +3588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3666,7 +3662,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3761,7 +3757,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4046,7 +4042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4123,7 +4119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4197,7 +4193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4289,7 +4285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4366,7 +4362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4458,7 +4454,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4532,7 +4528,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4606,7 +4602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4680,7 +4676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4754,7 +4750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4831,7 +4827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4905,7 +4901,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4979,7 +4975,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5071,7 +5067,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5145,7 +5141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5234,7 +5230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5308,7 +5304,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5382,7 +5378,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5477,7 +5473,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5560,7 +5556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5658,7 +5654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5735,7 +5731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5984,7 +5980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6058,7 +6054,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>

--- a/Call4Concern(1-59) (anonymised) v3.xlsx
+++ b/Call4Concern(1-59) (anonymised) v3.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Call4Concern(1-59) (anonymised) v3.xlsx
+++ b/Call4Concern(1-59) (anonymised) v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1751b608ea6aab/Business/Medicine/QIP/Escalation to ICU/Report/Data/escalation_to_icu_analysis_2/escalation_to_icu_qip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\escalation_to_icu\escalation_to_icu_qip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{66B741A3-5789-4468-837A-3222A71B325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3EC4DAA-1B2F-C643-ACF4-BCA42A86FD4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747D8BDD-83F4-4613-A130-FB94E4880BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="500" windowWidth="13180" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="18810" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -939,9 +939,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -979,7 +979,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1085,7 +1085,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1227,7 +1227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1237,13 +1237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1415,10 +1415,10 @@
         <v>33</v>
       </c>
       <c r="AH2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1501,10 +1501,10 @@
         <v>33</v>
       </c>
       <c r="AH3" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1679,10 +1679,10 @@
         <v>33</v>
       </c>
       <c r="AH5" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1872,10 +1872,10 @@
         <v>33</v>
       </c>
       <c r="AH7" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1970,10 +1970,10 @@
         <v>33</v>
       </c>
       <c r="AH8" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2068,10 +2068,10 @@
         <v>33</v>
       </c>
       <c r="AH9" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2335,10 +2335,10 @@
         <v>37</v>
       </c>
       <c r="AH12" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2412,10 +2412,10 @@
         <v>37</v>
       </c>
       <c r="AH13" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
